--- a/Homework 04 – Customer Journey/Customer-journey.xlsx
+++ b/Homework 04 – Customer Journey/Customer-journey.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yada.l/Desktop/github/BADS7105/Homework 04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yada.l/Desktop/github/BADS7105/Homework 04 – Customer Journey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97B1E15-D883-8B4B-A286-D6BCCE12CC32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC66710-D9DD-6B45-89BD-B2B1C0ABD9CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{77D7C75C-B874-064B-B365-1D9D5999B589}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer journey" sheetId="1" r:id="rId1"/>
+    <sheet name="Data analytics" sheetId="3" r:id="rId2"/>
+    <sheet name="Collect data" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t>Channels</t>
   </si>
@@ -112,12 +114,15 @@
   <si>
     <t>Yada Limsuwan 6210422056</t>
   </si>
+  <si>
+    <t>Purchase another gadget</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -255,18 +260,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1435,6 +1443,4018 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>93380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619673</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>654959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2424A902-2EA6-2044-84FE-F150D0DE6BC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14399559" y="7732056"/>
+          <a:ext cx="619673" cy="561579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>48021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>634999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343E6786-4CDE-CD4F-9DF2-BB918E5074DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4635500" y="2346721"/>
+          <a:ext cx="647700" cy="586978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>609599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EDAB9AC-1E5A-4540-AAA4-A251D2DEB6A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4635500" y="7668021"/>
+          <a:ext cx="647700" cy="586978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>479821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1066799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9444F3-BB42-054C-A5B4-D3DF73E1C8CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4584700" y="3781821"/>
+          <a:ext cx="647700" cy="586978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>314721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>901699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2536AC7C-D331-6341-BEBA-341E7EBEB477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4635500" y="5509021"/>
+          <a:ext cx="647700" cy="586978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>48021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>634999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16731C8E-70A4-3843-9975-CB2F6FF8479D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="6918721"/>
+          <a:ext cx="647700" cy="586978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695873</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C54198-4462-1F4D-8408-04D856E23F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10223500" y="1495821"/>
+          <a:ext cx="619673" cy="561579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>35321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695873</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>596900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64507605-07F2-A64C-9473-4F4981E161A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17653000" y="9979421"/>
+          <a:ext cx="619673" cy="561579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>693171</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91350EFD-7E57-C449-B8DF-8D7CBE077674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="7670800"/>
+          <a:ext cx="591571" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188289B7-409A-4B49-BE9C-A4D36D86B968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="2336800"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>927100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1101FE5D-EEDC-0145-8655-C4F61097EFBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651000" y="3733800"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF13B18-67A3-9749-BC54-DD6C37EDA463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4711700" y="1511300"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7A39FF-A156-4940-A2C1-A208C4A3EABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4102100" y="1917700"/>
+          <a:ext cx="546100" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2336800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FA5EAA-AED3-6C4C-ADD2-B20C7B8607C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="2235200"/>
+          <a:ext cx="12700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1778000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC13017-06A9-4E4F-B1F2-CD875892D165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4216400" y="2006600"/>
+          <a:ext cx="508000" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>838200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2336800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415C3F59-C882-D54E-8BA8-EAA3DD6FCE7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="3136900"/>
+          <a:ext cx="12700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2336800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1739900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2349500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F245D14-63A1-8A4E-9777-A4469B795055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7708900" y="5041900"/>
+          <a:ext cx="12700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2311400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1511300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9A7142-0A01-4F44-BBF8-DA8BFA2DC091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7683500" y="6705600"/>
+          <a:ext cx="12700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2311400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9856C398-C3D8-D746-A5AF-11C515D66054}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7683500" y="7480300"/>
+          <a:ext cx="12700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4521200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A698798-05B1-B249-8921-0F9FA5525A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9893300" y="8293100"/>
+          <a:ext cx="508000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>749300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A12989-1EAC-0242-A93B-497844458841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12077700" y="2184400"/>
+          <a:ext cx="25400" cy="5562600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1422402</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>795865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3380442</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>392208</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Curved Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B87AB6F-1D1E-8749-A19E-49CED26071B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10020050" y="4618817"/>
+          <a:ext cx="6733743" cy="1958040"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4233333</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>406400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Curved Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8E8ECF-DC0F-3648-BB49-A3400F0B14A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9605433" y="5600700"/>
+          <a:ext cx="10333567" cy="4455459"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 57952"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122767</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>29634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>714338</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>626534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17871661-4FE3-6F42-89B5-9442B7A7153C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10270067" y="8602134"/>
+          <a:ext cx="591571" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466912</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>37352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1792941</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>784411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8C8E114-169E-794D-8B68-F99F1579CCD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2894853" y="1475440"/>
+          <a:ext cx="1326029" cy="747059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>facebook advertising</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133723</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1553135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1531471</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>410882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484C46AF-AD42-E946-B280-4381BFB211B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2561664" y="4858870"/>
+          <a:ext cx="1397748" cy="744071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Google advertising</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3162299</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>528917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4560047</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>264459</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77C20B4-9E88-1548-85F1-3E38679A7E71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8541123" y="2826123"/>
+          <a:ext cx="1397748" cy="744071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Sentiment  Analysis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3239993</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1465729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>522941</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>323476</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F206F1CF-9B9C-3E4F-817B-8AB2A9AD4B96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8618817" y="4771464"/>
+          <a:ext cx="2064124" cy="744071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Search engine</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> optimization</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1412688</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>198716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2810436</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F77598-3E83-A441-A8A7-C70AE0DDEA97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12413129" y="7071657"/>
+          <a:ext cx="1397748" cy="744071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>CRM  Analysis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2088028</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1023468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>86658</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>404157</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED4DAC4-B15F-CB4B-B087-9EAAB45866DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13088469" y="9595968"/>
+          <a:ext cx="1397748" cy="744071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Route Optimization</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2461558</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>724646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>460188</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>609599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729B49FF-E53B-A645-B1A4-B72AF29EE5B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13461999" y="2162734"/>
+          <a:ext cx="1397748" cy="744071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>UX/UI  Analysis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93382</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>713055</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>710990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4977978C-5D93-A44F-9A31-E673C355DD41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14492941" y="7788087"/>
+          <a:ext cx="619673" cy="561579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>575235</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>239058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>261471</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>217394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C177D214-A35F-B941-8A3F-9E595EE026B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15703176" y="7111999"/>
+          <a:ext cx="2151530" cy="744071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Product Recommendation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2483223</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>727634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>463176</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C165FBB9-7396-9948-B792-C441EAEC3DE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13483664" y="3024840"/>
+          <a:ext cx="1397748" cy="744071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Payment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Analysis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1957294</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>818028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3355042</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>628275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{797762BE-F96B-DA42-8743-3F9813826839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7336118" y="8456704"/>
+          <a:ext cx="1397748" cy="744071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Campaign Analysis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>48021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>634999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF88957-2560-7B43-9F03-89E971EA63FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4635500" y="2346721"/>
+          <a:ext cx="647700" cy="586978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>609599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0ACC56B-63AA-8C4D-AD56-D762CA5487F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4635500" y="7668021"/>
+          <a:ext cx="647700" cy="586978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>479821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1066799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0203BD-04DC-A242-AF1A-69E7F05FD5AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4584700" y="3781821"/>
+          <a:ext cx="647700" cy="586978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>314721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>901699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACC0585-80DC-B449-9B09-B5709FE30642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4635500" y="5509021"/>
+          <a:ext cx="647700" cy="586978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>48021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>634999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F619C7AB-AC1F-334F-BAA4-40B85A59729B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="6918721"/>
+          <a:ext cx="647700" cy="586978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695873</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECE20DC-985C-E346-9B5B-E846B6DEAF7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10223500" y="1495821"/>
+          <a:ext cx="619673" cy="561579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>35321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695873</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>596900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AC4B3C-6E71-DD46-A3CE-F0A6DC278B02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17653000" y="9979421"/>
+          <a:ext cx="619673" cy="561579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>693171</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF834A3-EFC7-5041-BAB7-4158D7219A1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="7670800"/>
+          <a:ext cx="591571" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CB3E5C-E781-1543-A802-F2C98A293F7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="2336800"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>927100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD4A8E6-EF05-9C4D-9376-2495184A1BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651000" y="3733800"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E341327-F7E3-5840-96E9-8BE5EFFA5B7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4711700" y="1511300"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613B8780-EFB7-8844-A5BA-EBEE50A2F19A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4102100" y="1917700"/>
+          <a:ext cx="546100" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2336800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9FCEC5-C961-734F-BE17-19726AD8AD70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="2235200"/>
+          <a:ext cx="12700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1778000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0E4CC8-D7B9-1F4B-A5FF-E0D64D9006D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4216400" y="2006600"/>
+          <a:ext cx="508000" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>838200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2336800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5F0F3B-EEE8-BE48-AF54-3350BD36133C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="3136900"/>
+          <a:ext cx="12700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2336800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1739900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2349500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB43E82-2D6F-E340-8064-AE30B7C746E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7708900" y="5041900"/>
+          <a:ext cx="12700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2311400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1511300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873FB125-2E06-7C48-A9A0-D14A340E567B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7683500" y="6705600"/>
+          <a:ext cx="12700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2311400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0B6077-D790-C64B-92DC-A37DF6298292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7683500" y="7480300"/>
+          <a:ext cx="12700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4521200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6100BD7E-5CB0-B148-AD25-8150F040F71B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9893300" y="8293100"/>
+          <a:ext cx="508000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>749300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503A2FE2-A54B-C041-9A93-28C2935B89F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12077700" y="2184400"/>
+          <a:ext cx="25400" cy="5562600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1422402</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>795865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3380442</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>392208</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Curved Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D828CB-E373-C04F-9E91-69A1EF425F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10020050" y="4618817"/>
+          <a:ext cx="6733743" cy="1958040"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4233333</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>406400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Curved Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4E5051-63B7-6C42-B381-99E362EC6AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9605433" y="5600700"/>
+          <a:ext cx="10333567" cy="4455459"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 57952"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122767</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>29634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>714338</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>626534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB21FB2D-E6AC-2D4A-B53F-8A291F25546E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10270067" y="8602134"/>
+          <a:ext cx="591571" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466912</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>37352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1792941</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>784411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA06E4C2-0EB3-494C-9A3D-946EE3BD2AD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905312" y="1472452"/>
+          <a:ext cx="1326029" cy="747059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Facebook Profile</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133723</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1553135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1531471</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>410882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FDCD386-CB9E-0F4E-8C65-2E624EEF243C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2572123" y="4855135"/>
+          <a:ext cx="1397748" cy="750047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Google Profile</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3703917</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>510242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320489</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>205443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A37223-153E-2A48-AE7D-666A72494810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9082741" y="2807448"/>
+          <a:ext cx="1397748" cy="703730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Comment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Information</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1412688</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2810436</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E204F2-CC9F-CD45-B93B-E6BB79E0359E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12412842" y="6880869"/>
+          <a:ext cx="1397748" cy="759874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Customer feedback</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2106704</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1098174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>578970</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>448236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862980B2-A210-CE4B-AC22-C2FF1C94FAC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13107145" y="9670674"/>
+          <a:ext cx="1871384" cy="713444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Comment information</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2461557</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>724646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>597646</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>609599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1FA404-29DC-C24B-ABE1-D048540E7DDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13461998" y="2162734"/>
+          <a:ext cx="1535207" cy="744071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Google Analytics 360</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93382</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>713055</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>710990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB2AC8C9-F2A6-344D-95CC-2DC3D637B2A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14482482" y="7794811"/>
+          <a:ext cx="619673" cy="561579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>924342</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>328130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>610578</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01ADEC72-F159-204E-A7F3-F44D2DC5ADE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16047111" y="7186130"/>
+          <a:ext cx="2148082" cy="561157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>User  Profile</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2483223</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>727634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>463176</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9511F7A3-2F3B-6342-A850-C519B1ADC17E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13468723" y="3026334"/>
+          <a:ext cx="1402230" cy="738842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Payment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>System</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3557494</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1484407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>174066</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>301813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C7AFD97-C16D-8841-9830-BB50A84DDB6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8936318" y="4790142"/>
+          <a:ext cx="1397748" cy="703730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Comment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Information</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3877982</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1188571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>494554</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>211419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44F7B09-5498-DD43-9DCC-9CCBEB1F9946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9256806" y="6380630"/>
+          <a:ext cx="1397748" cy="703730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Comment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Information</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1919941</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>836706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3716617</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>672353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10763511-F79C-8C45-85B6-8602C9B15406}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7298765" y="8475382"/>
+          <a:ext cx="1796676" cy="769471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Product Pricing each branch</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2109693</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>559545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581959</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>77695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7635E170-BD50-0243-9E33-2CBABCEF128C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13110134" y="10495427"/>
+          <a:ext cx="1871384" cy="713444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Customer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> feedback</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2131358</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>189004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603624</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6DA45BE-5B14-8641-8446-D8B87F5048E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13131799" y="11320180"/>
+          <a:ext cx="1871384" cy="520702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Shipping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> rating</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1739,11 +5759,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933BDCC7-4057-D148-A61F-E5253CDBF4EE}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
@@ -1758,47 +5778,47 @@
     <col min="11" max="11" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="65" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="68" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1817,7 +5837,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="79" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +5856,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="149" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1855,7 +5875,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="132" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1872,7 +5892,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="61" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1889,7 +5909,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="73" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1904,11 +5924,13 @@
         <v>16</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="108" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1925,7 +5947,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="78" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1942,10 +5964,618 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:1" ht="31">
+      <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D22C36-1EDD-FB4E-BD4F-6589C3C83FD1}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="65" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="68" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="79" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="149" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="132" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="61" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="73" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="108" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="78" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="31">
+      <c r="A17" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C567A2-FFB5-FC44-B511-D1D9C23AD163}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" ht="65" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" ht="68" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" ht="79" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" ht="149" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" ht="132" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" ht="61" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" ht="73" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" ht="108" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" ht="78" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" ht="31">
+      <c r="A17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
